--- a/data/test-case_v1116_v2.xlsx
+++ b/data/test-case_v1116_v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
   <si>
     <t>http://op.juhe.cn/onebox/news/words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,14 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"data":"wfj@dain#***","publicKey":${PublicKey}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"data":"330100194704074447","publicKey":${PublicKey}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://192.168.149.135:8082/login-web/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username=${Rsa_Username}&amp;password=${Rsa_Password}&amp;single=02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://192.168.149.135:8082/sbzx-web/api/ysbqc/queryysb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,18 +292,6 @@
   </si>
   <si>
     <t>http://192.168.149.135:8082/login-web/auth/hb/getByhInfo.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>djxh=${djxh}&amp;nsrsbh=${nsrsbh}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded","Cookie":"DZSWJ_TGC="+${DZSWJ_TGC}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Cookie":"DZSWJ_TGC="+${DZSWJ_TGC}+";"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -450,6 +426,27 @@
   <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":"330100194704074447","publicKey":%{PublicKey}}</t>
+  </si>
+  <si>
+    <t>{"data":"wfj@dain#***","publicKey":%{PublicKey}}</t>
+  </si>
+  <si>
+    <t>username=%{Rsa_Username}&amp;password=%{Rsa_Password}&amp;single=02</t>
+  </si>
+  <si>
+    <t>{"Cookie":"DZSWJ_TGC=%{DZSWJ_TGC};"}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded","Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}}</t>
+  </si>
+  <si>
+    <t>djxh=%{djxh}&amp;nsrsbh=%{nsrsbh}</t>
+  </si>
+  <si>
+    <t>{"Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
   </si>
 </sst>
 </file>
@@ -981,7 +978,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>32</v>
@@ -1094,13 +1091,13 @@
         <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>8</v>
@@ -1109,10 +1106,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -1129,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>2</v>
@@ -1166,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1213,10 +1210,10 @@
         <v>42</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1224,19 +1221,19 @@
         <v>44</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>8</v>
@@ -1245,13 +1242,13 @@
         <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
@@ -1259,13 +1256,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>30</v>
@@ -1277,16 +1274,16 @@
         <v>55</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
@@ -1294,13 +1291,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>30</v>
@@ -1312,16 +1309,16 @@
         <v>55</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -1329,34 +1326,34 @@
         <v>47</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1364,60 +1361,60 @@
         <v>48</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>33</v>
@@ -1426,33 +1423,33 @@
         <v>8</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>33</v>
@@ -1461,30 +1458,30 @@
         <v>8</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>8</v>
@@ -1496,7 +1493,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case_v1116_v2.xlsx
+++ b/data/test-case_v1116_v2.xlsx
@@ -415,10 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PublicKey='pk': '(.+?)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否执行
 (if_exec)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,25 +424,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"data":"330100194704074447","publicKey":%{PublicKey}}</t>
-  </si>
-  <si>
-    <t>{"data":"wfj@dain#***","publicKey":%{PublicKey}}</t>
-  </si>
-  <si>
     <t>username=%{Rsa_Username}&amp;password=%{Rsa_Password}&amp;single=02</t>
   </si>
   <si>
-    <t>{"Cookie":"DZSWJ_TGC=%{DZSWJ_TGC};"}</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded","Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}}</t>
-  </si>
-  <si>
     <t>djxh=%{djxh}&amp;nsrsbh=%{nsrsbh}</t>
   </si>
   <si>
     <t>{"Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
+  </si>
+  <si>
+    <t>{"Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded","Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":"330100194704074447","publicKey":"%{PublicKey}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublicKey="pk": "(.+?)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":"wfj@dain#***","publicKey":"%{PublicKey}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1164,7 +1168,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1213,7 +1217,7 @@
         <v>90</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1245,10 +1249,10 @@
         <v>84</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
@@ -1274,7 +1278,7 @@
         <v>55</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>8</v>
@@ -1283,7 +1287,7 @@
         <v>91</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
@@ -1309,7 +1313,7 @@
         <v>55</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>8</v>
@@ -1318,7 +1322,7 @@
         <v>92</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -1344,7 +1348,7 @@
         <v>57</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>33</v>
@@ -1353,7 +1357,7 @@
         <v>93</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1376,7 +1380,7 @@
         <v>61</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>8</v>
@@ -1388,7 +1392,7 @@
         <v>94</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -1411,10 +1415,10 @@
         <v>65</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>33</v>
@@ -1423,7 +1427,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -1446,10 +1450,10 @@
         <v>58</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>33</v>
@@ -1458,7 +1462,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
@@ -1481,7 +1485,7 @@
         <v>76</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>8</v>
@@ -1493,7 +1497,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case_v1116_v2.xlsx
+++ b/data/test-case_v1116_v2.xlsx
@@ -403,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DZSWJ_TGC="dzswj_tgc": "(.+?)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>djxh="djxh":"(.+?)"&amp;nsrsbh="nsrsbhGs":"(.+?)"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,32 +420,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>djxh=%{djxh}&amp;nsrsbh=%{nsrsbh}</t>
+  </si>
+  <si>
+    <t>{"Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
+  </si>
+  <si>
+    <t>{"Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded","Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":"330100194704074447","publicKey":"%{PublicKey}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublicKey="pk": "(.+?)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":"wfj@dain#***","publicKey":"%{PublicKey}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>username=%{Rsa_Username}&amp;password=%{Rsa_Password}&amp;single=02</t>
-  </si>
-  <si>
-    <t>djxh=%{djxh}&amp;nsrsbh=%{nsrsbh}</t>
-  </si>
-  <si>
-    <t>{"Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
-  </si>
-  <si>
-    <t>{"Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded","Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"data":"330100194704074447","publicKey":"%{PublicKey}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PublicKey="pk": "(.+?)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"data":"wfj@dain#***","publicKey":"%{PublicKey}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZSWJ_TGC="dzswj_tgc":"(.+?)"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,7 +1114,7 @@
         <v>84</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -1168,7 +1169,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1217,7 +1218,7 @@
         <v>90</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1249,10 +1250,10 @@
         <v>84</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
@@ -1278,7 +1279,7 @@
         <v>55</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>8</v>
@@ -1287,7 +1288,7 @@
         <v>91</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
@@ -1313,7 +1314,7 @@
         <v>55</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>8</v>
@@ -1322,7 +1323,7 @@
         <v>92</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -1348,16 +1349,16 @@
         <v>57</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1380,7 +1381,7 @@
         <v>61</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>8</v>
@@ -1389,10 +1390,10 @@
         <v>63</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -1415,10 +1416,10 @@
         <v>65</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>33</v>
@@ -1427,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -1450,10 +1451,10 @@
         <v>58</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>33</v>
@@ -1462,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
@@ -1485,7 +1486,7 @@
         <v>76</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>8</v>
@@ -1497,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case_v1116_v2.xlsx
+++ b/data/test-case_v1116_v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="107">
   <si>
     <t>http://op.juhe.cn/onebox/news/words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,10 +283,6 @@
     <t>YSBQC01_7</t>
   </si>
   <si>
-    <t>flag":ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getByhInfo.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,6 +447,14 @@
   </si>
   <si>
     <t>DZSWJ_TGC="dzswj_tgc":"(.+?)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success": true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag":"ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -983,7 +987,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>32</v>
@@ -1096,13 +1100,13 @@
         <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>8</v>
@@ -1111,10 +1115,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -1131,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>2</v>
@@ -1168,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1215,10 +1219,10 @@
         <v>42</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1226,19 +1230,19 @@
         <v>44</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>8</v>
@@ -1247,13 +1251,13 @@
         <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
@@ -1261,13 +1265,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>30</v>
@@ -1279,16 +1283,16 @@
         <v>55</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
@@ -1296,13 +1300,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>30</v>
@@ -1314,16 +1318,16 @@
         <v>55</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -1331,13 +1335,13 @@
         <v>47</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>30</v>
@@ -1349,16 +1353,16 @@
         <v>57</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1366,13 +1370,13 @@
         <v>48</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>30</v>
@@ -1381,19 +1385,19 @@
         <v>61</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -1401,25 +1405,25 @@
         <v>59</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>33</v>
@@ -1428,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -1436,13 +1440,13 @@
         <v>62</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>30</v>
@@ -1451,10 +1455,10 @@
         <v>58</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>33</v>
@@ -1463,30 +1467,30 @@
         <v>8</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>8</v>
@@ -1498,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case_v1116_v2.xlsx
+++ b/data/test-case_v1116_v2.xlsx
@@ -420,41 +420,42 @@
   </si>
   <si>
     <t>{"Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded","Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":"330100194704074447","publicKey":"%{PublicKey}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublicKey="pk": "(.+?)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":"wfj@dain#***","publicKey":"%{PublicKey}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=%{Rsa_Username}&amp;password=%{Rsa_Password}&amp;single=02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZSWJ_TGC="dzswj_tgc":"(.+?)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success": true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag":"ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded","Cookie":"DZSWJ_TGC=%{DZSWJ_TGC}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"data":"330100194704074447","publicKey":"%{PublicKey}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PublicKey="pk": "(.+?)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"data":"wfj@dain#***","publicKey":"%{PublicKey}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username=%{Rsa_Username}&amp;password=%{Rsa_Password}&amp;single=02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DZSWJ_TGC="dzswj_tgc":"(.+?)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success": true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag":"ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1251,10 +1252,10 @@
         <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>95</v>
@@ -1283,7 +1284,7 @@
         <v>55</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>8</v>
@@ -1318,7 +1319,7 @@
         <v>55</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>8</v>
@@ -1353,13 +1354,13 @@
         <v>57</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>95</v>
@@ -1385,13 +1386,13 @@
         <v>61</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>92</v>
@@ -1420,7 +1421,7 @@
         <v>64</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>96</v>
@@ -1455,7 +1456,7 @@
         <v>58</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>96</v>
@@ -1490,7 +1491,7 @@
         <v>75</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>8</v>
